--- a/ActividadesProyecto.xlsx
+++ b/ActividadesProyecto.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Personal\Proyectos\PlataformaSalud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38241192-08B4-4ED0-8A1C-71A34062DBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EB56C4-12CC-4BA1-8A55-F45FA0197C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5A375E53-5F29-42EA-B55E-8F0EAC125E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Validaciones" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Proyecto de Historia Clinica Version 1.0.1</t>
   </si>
@@ -111,12 +112,45 @@
   <si>
     <t xml:space="preserve">Creacion de componentes para realizar la edicion de  registro para las  ordenes de examenes y procedimientos </t>
   </si>
+  <si>
+    <t>En la descripcion quirurgica se debe evaluar que la fecha de la atencion sea posterior a la de la creacion del evento y no puede ser superior a la fecha actual</t>
+  </si>
+  <si>
+    <t>en la descripcion quirurgica se debe evaluar que el procedimiento corresponda al sexo</t>
+  </si>
+  <si>
+    <t>En registro de medicamentosse debe validar la fecha del registro</t>
+  </si>
+  <si>
+    <t>En el registro de signos vitales se debe validar la fecha</t>
+  </si>
+  <si>
+    <t>Consentimiento informado</t>
+  </si>
+  <si>
+    <t>llamado a paciente</t>
+  </si>
+  <si>
+    <t>ENCRIPTAR PARAMETROS QUE PASAN EN LA URL</t>
+  </si>
+  <si>
+    <t>Asignar consentimientos informados a pacientes</t>
+  </si>
+  <si>
+    <t>Generar PDF del consentimiento</t>
+  </si>
+  <si>
+    <t>firmar digitalmente el consentimiento</t>
+  </si>
+  <si>
+    <t>version 1.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,14 +169,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -205,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -231,25 +257,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,25 +609,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555BB51E-AD34-4A39-91E5-23D041F65CA2}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -615,14 +640,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -631,34 +656,34 @@
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -667,97 +692,142 @@
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -766,4 +836,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B72D22-1882-4B0C-958D-EA30A3CFCAC3}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ActividadesProyecto.xlsx
+++ b/ActividadesProyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Personal\Proyectos\PlataformaSalud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EB56C4-12CC-4BA1-8A55-F45FA0197C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB763AE5-05F9-41D1-9AA4-18E7B72986F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5A375E53-5F29-42EA-B55E-8F0EAC125E90}"/>
   </bookViews>
@@ -175,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -270,11 +276,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555BB51E-AD34-4A39-91E5-23D041F65CA2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,32 +725,32 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -775,7 +779,7 @@
       </c>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>18</v>
       </c>

--- a/ActividadesProyecto.xlsx
+++ b/ActividadesProyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Personal\Proyectos\PlataformaSalud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB763AE5-05F9-41D1-9AA4-18E7B72986F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20A396-70A5-4278-B640-45245CE6D9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5A375E53-5F29-42EA-B55E-8F0EAC125E90}"/>
   </bookViews>
@@ -175,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -270,14 +276,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555BB51E-AD34-4A39-91E5-23D041F65CA2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,11 +639,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -744,19 +756,19 @@
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="9"/>

--- a/ActividadesProyecto.xlsx
+++ b/ActividadesProyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Personal\Proyectos\PlataformaSalud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20A396-70A5-4278-B640-45245CE6D9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8A52FF-D750-4F01-AF94-D4CAB08C2B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5A375E53-5F29-42EA-B55E-8F0EAC125E90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5A375E53-5F29-42EA-B55E-8F0EAC125E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Proyecto de Historia Clinica Version 1.0.1</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>version 1.1</t>
+  </si>
+  <si>
+    <t>al realizar la orden de procedimiento o examen validar el sexo</t>
   </si>
 </sst>
 </file>
@@ -279,17 +282,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555BB51E-AD34-4A39-91E5-23D041F65CA2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -639,11 +642,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -765,10 +768,10 @@
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="9"/>
@@ -856,9 +859,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B72D22-1882-4B0C-958D-EA30A3CFCAC3}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -890,6 +895,11 @@
         <v>29</v>
       </c>
     </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ActividadesProyecto.xlsx
+++ b/ActividadesProyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Documents\Personal\Proyectos\PlataformaSalud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8A52FF-D750-4F01-AF94-D4CAB08C2B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F70C79-1BB4-4233-BEFC-EE68E8681C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5A375E53-5F29-42EA-B55E-8F0EAC125E90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5A375E53-5F29-42EA-B55E-8F0EAC125E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555BB51E-AD34-4A39-91E5-23D041F65CA2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="9"/>
     </row>
@@ -767,21 +767,21 @@
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
+      <c r="B16" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="9"/>
     </row>
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B72D22-1882-4B0C-958D-EA30A3CFCAC3}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
